--- a/StartList/TestList.xlsx
+++ b/StartList/TestList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\referee\Documents\GitHub\tw_scoring\StartList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A102A79E-C6ED-4691-BC56-D09E6467A67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DDA707-3E13-48E1-821F-713960B70F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,48 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="26">
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>Категория</t>
-  </si>
-  <si>
-    <t>Пол</t>
-  </si>
-  <si>
-    <t>Группа</t>
-  </si>
-  <si>
-    <t>Год</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="8">
   <si>
     <t>Пелих</t>
   </si>
   <si>
     <t>Артём</t>
-  </si>
-  <si>
-    <t>М</t>
-  </si>
-  <si>
-    <t>Группа 1</t>
-  </si>
-  <si>
-    <t>Группа 2</t>
-  </si>
-  <si>
-    <t>Группа 3</t>
-  </si>
-  <si>
-    <t>Группа 4</t>
-  </si>
-  <si>
-    <t>Ном</t>
   </si>
   <si>
     <t>Зарихта</t>
@@ -85,24 +49,6 @@
   </si>
   <si>
     <t>Бандурова</t>
-  </si>
-  <si>
-    <t>мс</t>
-  </si>
-  <si>
-    <t>кмс</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>Ж</t>
-  </si>
-  <si>
-    <t>Группа 5</t>
   </si>
 </sst>
 </file>
@@ -436,638 +382,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A2:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I28"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>1995</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="D13">
         <v>1995</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>1995</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>1995</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="D20">
         <v>2000</v>
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="D26">
         <v>1995</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>1995</v>
       </c>
     </row>

--- a/StartList/TestList.xlsx
+++ b/StartList/TestList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\referee\Documents\GitHub\tw_scoring\StartList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syner\Documents\GitHub\tw_scoring\StartList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DDA707-3E13-48E1-821F-713960B70F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1D2FD5-71E9-40AA-B21D-A3B9A4598D48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I27"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,29 +395,43 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1995</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>1996</v>
@@ -425,13 +439,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>1996</v>
@@ -439,27 +453,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1996</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
       </c>
       <c r="D6">
         <v>2000</v>
@@ -467,41 +481,41 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>2000</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>1996</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>2000</v>
@@ -509,13 +523,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>2000</v>
@@ -523,41 +537,41 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>2000</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1995</v>
@@ -565,7 +579,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -579,27 +593,27 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>1996</v>
@@ -607,13 +621,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>1996</v>
@@ -621,27 +635,27 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1996</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
       </c>
       <c r="D19">
         <v>2000</v>
@@ -649,42 +663,42 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>1996</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>2000</v>
@@ -692,13 +706,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>2000</v>
@@ -706,57 +720,43 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>2000</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27">
         <v>1995</v>
       </c>
     </row>

--- a/StartList/TestList.xlsx
+++ b/StartList/TestList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syner\Documents\GitHub\tw_scoring\StartList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\referee\Documents\GitHub\tw_scoring\StartList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1D2FD5-71E9-40AA-B21D-A3B9A4598D48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D8671D-C546-43EC-B527-628CE5708998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
   <si>
     <t>Пелих</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Бандурова</t>
+  </si>
+  <si>
+    <t>М</t>
+  </si>
+  <si>
+    <t>Ж</t>
   </si>
 </sst>
 </file>
@@ -382,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,7 +401,7 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>23</v>
       </c>
@@ -405,11 +411,14 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1">
         <v>1995</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>22</v>
       </c>
@@ -419,11 +428,14 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
         <v>1996</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>14</v>
       </c>
@@ -433,11 +445,14 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
         <v>1996</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11</v>
       </c>
@@ -447,11 +462,14 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
         <v>1996</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -461,11 +479,14 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32</v>
       </c>
@@ -475,11 +496,14 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>36</v>
       </c>
@@ -489,11 +513,14 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
         <v>1996</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>42</v>
       </c>
@@ -503,11 +530,14 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>41</v>
       </c>
@@ -517,11 +547,14 @@
       <c r="C9" t="s">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -531,11 +564,14 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>76</v>
       </c>
@@ -545,220 +581,15 @@
       <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
         <v>1996</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>1996</v>
-      </c>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>76</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>54</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1995</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/StartList/TestList.xlsx
+++ b/StartList/TestList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\referee\Documents\GitHub\tw_scoring\StartList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D8671D-C546-43EC-B527-628CE5708998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCD4505-90E3-454E-AE13-5642C7F470DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="10">
   <si>
     <t>Пелих</t>
   </si>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,8 +588,193 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>2000</v>
+      </c>
       <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>1996</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
